--- a/my classes schedule.xlsx
+++ b/my classes schedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="193">
   <si>
     <t>Saturday</t>
   </si>
@@ -595,6 +595,15 @@
   </si>
   <si>
     <t>جلسه توجیهی موسسه دهخدا ساعت 15</t>
+  </si>
+  <si>
+    <t>رضا ساعت 4</t>
+  </si>
+  <si>
+    <t>1401/07/22</t>
+  </si>
+  <si>
+    <t>1401/07/24</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,472 +1591,486 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C28" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D28" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E28" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F28" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="G28" s="25"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D30" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E30" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="F30" s="25"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D33" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E33" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H33" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I33" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-    </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C35" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D35" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E35" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F35" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H35" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I35" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J35" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="K35" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="L34" s="25" t="s">
+      <c r="L35" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="M35" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="N35" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O35" s="25" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="O35" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q35" s="25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C37" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E37" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F37" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G37" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H37" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I37" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J37" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="K37" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B39" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C39" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D39" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F39" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G39" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H39" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I39" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J39" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K39" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L39" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="M39" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="N39" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O39" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="P38" s="25" t="s">
+      <c r="P39" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q38" s="25" t="s">
+      <c r="Q39" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C40" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D40" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E40" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F40" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G40" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H40" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-    </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B43" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C43" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D43" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E43" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F43" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G43" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H43" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I43" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K43" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="L42" s="25" t="s">
+      <c r="L43" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="M42" s="25" t="s">
+      <c r="M43" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="N43" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="O42" s="25" t="s">
+      <c r="O43" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="25" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C44" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D44" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E44" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F44" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G44" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H44" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I44" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>187</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2060,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2342,9 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="S8" s="23" t="s">
+        <v>190</v>
+      </c>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
     </row>

--- a/my classes schedule.xlsx
+++ b/my classes schedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="193">
   <si>
     <t>Saturday</t>
   </si>
@@ -1110,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,269 +1807,287 @@
       <c r="M37" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="N37" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B40" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C40" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D40" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E40" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F40" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G40" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H40" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I40" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J40" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="K40" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L40" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="M40" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="N40" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="O40" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="P39" s="25" t="s">
+      <c r="P40" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q39" s="25" t="s">
+      <c r="Q40" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B41" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C41" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D41" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E41" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F41" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G41" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H41" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-    </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B44" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C44" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D44" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E44" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F44" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G44" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H44" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I44" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J44" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K44" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="L43" s="25" t="s">
+      <c r="L44" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="M44" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="N44" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O44" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="25" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C45" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D45" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E45" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F45" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G45" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H45" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I45" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2083,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>

--- a/my classes schedule.xlsx
+++ b/my classes schedule.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="203">
   <si>
     <t>Saturday</t>
   </si>
@@ -594,9 +595,6 @@
     <t>1401/07/14</t>
   </si>
   <si>
-    <t>جلسه توجیهی موسسه دهخدا ساعت 15</t>
-  </si>
-  <si>
     <t>رضا ساعت 4</t>
   </si>
   <si>
@@ -604,6 +602,39 @@
   </si>
   <si>
     <t>1401/07/24</t>
+  </si>
+  <si>
+    <t>کلاس آنلاین با صبا خانم ساعت 10</t>
+  </si>
+  <si>
+    <t>username: melli code</t>
+  </si>
+  <si>
+    <t>password: melli code</t>
+  </si>
+  <si>
+    <t>I should be present in the application 15 minutes before start of the class</t>
+  </si>
+  <si>
+    <t>private classes: 10 sessions</t>
+  </si>
+  <si>
+    <t>public classes: 14 sessions - last session = final exam</t>
+  </si>
+  <si>
+    <t>Dehkhoda Institute's requirements:</t>
+  </si>
+  <si>
+    <t>no one should be absent for more than 2 to 3 sessions, otherwise I should report</t>
+  </si>
+  <si>
+    <t>inform the institute one month in advance for any resignation of cooperation contract</t>
+  </si>
+  <si>
+    <t>مینا عابدی شاگرد اصفهان</t>
+  </si>
+  <si>
+    <t>1401/07/28</t>
   </si>
 </sst>
 </file>
@@ -613,7 +644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +661,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -759,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -830,6 +869,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,7 +1636,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -1808,7 +1851,7 @@
         <v>178</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,10 +2128,18 @@
         <v>187</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2101,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2209,9 +2260,7 @@
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="28" t="s">
-        <v>189</v>
-      </c>
+      <c r="S2" s="28"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
@@ -2338,6 +2387,9 @@
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="19"/>
+      <c r="S7" s="30" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
@@ -2361,10 +2413,69 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="72.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my classes schedule.xlsx
+++ b/my classes schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="208">
   <si>
     <t>Saturday</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Taha</t>
   </si>
   <si>
-    <t>فاطمه</t>
-  </si>
-  <si>
     <t>Fatemeh</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>1401/01/15</t>
   </si>
   <si>
-    <t>صبا</t>
-  </si>
-  <si>
     <t>1401/01/17</t>
   </si>
   <si>
@@ -595,18 +589,12 @@
     <t>1401/07/14</t>
   </si>
   <si>
-    <t>رضا ساعت 4</t>
-  </si>
-  <si>
     <t>1401/07/22</t>
   </si>
   <si>
     <t>1401/07/24</t>
   </si>
   <si>
-    <t>کلاس آنلاین با صبا خانم ساعت 10</t>
-  </si>
-  <si>
     <t>username: melli code</t>
   </si>
   <si>
@@ -635,6 +623,33 @@
   </si>
   <si>
     <t>1401/07/28</t>
+  </si>
+  <si>
+    <t>1401/07/29</t>
+  </si>
+  <si>
+    <t>دارا سمیعی</t>
+  </si>
+  <si>
+    <t>1401/07/30</t>
+  </si>
+  <si>
+    <t>هلنا</t>
+  </si>
+  <si>
+    <t>1401/08/02</t>
+  </si>
+  <si>
+    <t>1401/08/1</t>
+  </si>
+  <si>
+    <t>دکتر راثی</t>
+  </si>
+  <si>
+    <t>مینا اصفهان</t>
+  </si>
+  <si>
+    <t>مینا دوست متین</t>
   </si>
 </sst>
 </file>
@@ -798,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -865,9 +880,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,22 +1195,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1257,7 +1269,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -1275,7 +1287,7 @@
     </row>
     <row r="6" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -1320,7 +1332,7 @@
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="5">
         <v>150000</v>
@@ -1335,7 +1347,7 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="5">
         <v>50000</v>
@@ -1350,7 +1362,7 @@
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="5">
         <v>150000</v>
@@ -1398,245 +1410,248 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="F18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="H19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="I19" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="F20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="H20" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="H21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="I21" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G22" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="I22" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>108</v>
-      </c>
       <c r="H23" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>145</v>
-      </c>
       <c r="J24" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>155</v>
-      </c>
       <c r="D25" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>171</v>
+      <c r="I25" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -1647,70 +1662,70 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G28" s="25"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F30" s="25"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,140 +1733,149 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F35" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G35" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>107</v>
-      </c>
       <c r="I35" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J35" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>119</v>
-      </c>
       <c r="M35" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>133</v>
-      </c>
       <c r="F36" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="H36" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>138</v>
-      </c>
       <c r="I36" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M36" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="N36" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="O36" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="P36" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="P36" s="25" t="s">
-        <v>157</v>
-      </c>
       <c r="Q36" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="E37" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="G37" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="H37" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="27" t="s">
+      <c r="I37" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="J37" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="K37" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="L37" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,99 +1892,99 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N40" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O40" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="P40" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="Q40" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="P40" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q40" s="25" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>141</v>
-      </c>
       <c r="D41" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E41" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="H41" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>147</v>
-      </c>
       <c r="I41" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,178 +1992,200 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F44" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="I44" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>125</v>
-      </c>
       <c r="J44" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G49" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="L49" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="M49" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>191</v>
+      <c r="N49" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O49" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>202</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2152,8 +2198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2168,8 +2215,9 @@
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.6640625" customWidth="1"/>
     <col min="21" max="21" width="19.21875" customWidth="1"/>
@@ -2178,55 +2226,55 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="R1" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -2237,18 +2285,18 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -2256,11 +2304,10 @@
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
       <c r="P2" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="28"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
@@ -2275,8 +2322,8 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="O3" s="18"/>
-      <c r="P3" t="s">
-        <v>80</v>
+      <c r="Q3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2284,11 +2331,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="13"/>
@@ -2299,13 +2346,17 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -2315,9 +2366,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
-        <v>186</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2326,15 +2375,8 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="O5" s="8"/>
-      <c r="P5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
       <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2345,13 +2387,13 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2362,7 +2404,9 @@
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="R6" s="15"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -2374,22 +2418,23 @@
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="K7" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="30" t="s">
-        <v>192</v>
-      </c>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
@@ -2408,13 +2453,15 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="O8" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>207</v>
+      </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="23" t="s">
-        <v>189</v>
-      </c>
+      <c r="S8" s="23"/>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
     </row>
@@ -2438,43 +2485,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>198</v>
+      <c r="A1" s="30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/my classes schedule.xlsx
+++ b/my classes schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,13 +643,13 @@
     <t>1401/08/1</t>
   </si>
   <si>
-    <t>دکتر راثی</t>
-  </si>
-  <si>
     <t>مینا اصفهان</t>
   </si>
   <si>
     <t>مینا دوست متین</t>
+  </si>
+  <si>
+    <t>1401/08/07</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,25 +2166,37 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2198,9 +2210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,6 +2320,9 @@
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="15"/>
+      <c r="S2" t="s">
+        <v>206</v>
+      </c>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
@@ -2322,8 +2337,8 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="O3" s="18"/>
-      <c r="Q3" t="s">
-        <v>206</v>
+      <c r="Q3" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2351,12 +2366,8 @@
       <c r="P4" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="15"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -2405,7 +2416,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="13"/>
@@ -2422,9 +2433,7 @@
         <v>184</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -2454,10 +2463,10 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>

--- a/my classes schedule.xlsx
+++ b/my classes schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PHD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="220">
   <si>
     <t>Saturday</t>
   </si>
@@ -547,9 +547,6 @@
     <t>1401/06/23</t>
   </si>
   <si>
-    <t>حسین دایی علی</t>
-  </si>
-  <si>
     <t>1401/06/29</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>1401/07/10</t>
   </si>
   <si>
-    <t>صبا خانم</t>
-  </si>
-  <si>
     <t>1401/07/13</t>
   </si>
   <si>
@@ -598,9 +592,6 @@
     <t>username: melli code</t>
   </si>
   <si>
-    <t>password: melli code</t>
-  </si>
-  <si>
     <t>I should be present in the application 15 minutes before start of the class</t>
   </si>
   <si>
@@ -643,13 +634,58 @@
     <t>1401/08/1</t>
   </si>
   <si>
-    <t>مینا اصفهان</t>
-  </si>
-  <si>
     <t>مینا دوست متین</t>
   </si>
   <si>
     <t>1401/08/07</t>
+  </si>
+  <si>
+    <t>1401/08/11</t>
+  </si>
+  <si>
+    <t>آرمان پارسا</t>
+  </si>
+  <si>
+    <t>ابوالحسنی</t>
+  </si>
+  <si>
+    <t>1401/08/17</t>
+  </si>
+  <si>
+    <t>password: joli1366</t>
+  </si>
+  <si>
+    <t>dehkhoda student</t>
+  </si>
+  <si>
+    <t>1401/08/24</t>
+  </si>
+  <si>
+    <t>greetings, exercises on oxford word skills</t>
+  </si>
+  <si>
+    <t>دانشجو دهخدا</t>
+  </si>
+  <si>
+    <t>1401/08/29</t>
+  </si>
+  <si>
+    <t>1401/08/28</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>exercises on oxford word skills</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>can you…</t>
+  </si>
+  <si>
+    <t>would you like...</t>
   </si>
 </sst>
 </file>
@@ -1165,17 +1201,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
@@ -1646,12 +1682,12 @@
         <v>169</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -1838,366 +1874,427 @@
       <c r="D37" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="Q37" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="D38" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="E38" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="F38" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="G38" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="H38" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="I38" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>175</v>
+      </c>
       <c r="K38" s="27"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="K39" s="27"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B41" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C41" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D41" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E41" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F41" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G41" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H41" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I41" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J41" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K41" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="L41" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="M41" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="N41" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="O41" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="P40" s="25" t="s">
+      <c r="P41" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="Q40" s="25" t="s">
+      <c r="Q41" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C42" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D42" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E42" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F42" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G42" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H42" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="2" t="s">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="C43" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="D43" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="A44" s="8"/>
       <c r="B44" s="25" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="K44" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
-      <c r="B45" s="25" t="s">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C47" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D47" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E47" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F47" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G47" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H47" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I47" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J45" s="2" t="s">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="C48" s="25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="D50" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="C51" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="D51" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="F51" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="25" t="s">
+      <c r="G51" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="H51" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="L49" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="O49" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>198</v>
+      <c r="I51" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O53" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B64" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>203</v>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2211,15 +2308,15 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S4" sqref="S4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
@@ -2227,7 +2324,8 @@
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.5546875" bestFit="1" customWidth="1"/>
@@ -2293,23 +2391,19 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>212</v>
+      </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -2320,15 +2414,18 @@
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="15"/>
-      <c r="S2" t="s">
-        <v>206</v>
-      </c>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -2337,20 +2434,20 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="O3" s="18"/>
-      <c r="Q3" s="18" t="s">
-        <v>205</v>
-      </c>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="13"/>
@@ -2376,8 +2473,12 @@
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>212</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2394,18 +2495,16 @@
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2415,9 +2514,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="13" t="s">
-        <v>205</v>
-      </c>
+      <c r="Q6" s="13"/>
       <c r="R6" s="15"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -2427,11 +2524,13 @@
       <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="E7" s="18" t="s">
-        <v>184</v>
-      </c>
+      <c r="B7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="18"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -2463,10 +2562,10 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>
@@ -2485,7 +2584,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,42 +2594,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/my classes schedule.xlsx
+++ b/my classes schedule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="211">
   <si>
     <t>Saturday</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Reza duste Arman</t>
   </si>
   <si>
-    <t>رضا</t>
-  </si>
-  <si>
     <t>Marjan hamkare maryam</t>
   </si>
   <si>
@@ -646,46 +643,22 @@
     <t>آرمان پارسا</t>
   </si>
   <si>
-    <t>ابوالحسنی</t>
-  </si>
-  <si>
-    <t>1401/08/17</t>
-  </si>
-  <si>
     <t>password: joli1366</t>
   </si>
   <si>
-    <t>dehkhoda student</t>
-  </si>
-  <si>
-    <t>1401/08/24</t>
-  </si>
-  <si>
-    <t>greetings, exercises on oxford word skills</t>
-  </si>
-  <si>
-    <t>دانشجو دهخدا</t>
-  </si>
-  <si>
-    <t>1401/08/29</t>
-  </si>
-  <si>
-    <t>1401/08/28</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>exercises on oxford word skills</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>can you…</t>
-  </si>
-  <si>
-    <t>would you like...</t>
+    <t>صبا خانم</t>
+  </si>
+  <si>
+    <t>علی دهخدا</t>
+  </si>
+  <si>
+    <t>رژینا</t>
+  </si>
+  <si>
+    <t>1401/07/07</t>
+  </si>
+  <si>
+    <t>1401/09/08</t>
   </si>
 </sst>
 </file>
@@ -849,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -916,11 +889,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,16 +1209,16 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1368,7 +1340,7 @@
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="5">
         <v>150000</v>
@@ -1383,7 +1355,7 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="5">
         <v>50000</v>
@@ -1398,7 +1370,7 @@
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="5">
         <v>150000</v>
@@ -1446,248 +1418,248 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="F18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>38</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="H19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="I19" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="F20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="H20" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>52</v>
       </c>
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="H21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="I21" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>71</v>
-      </c>
       <c r="I22" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="J23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>132</v>
-      </c>
       <c r="F24" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I24" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>144</v>
-      </c>
       <c r="K24" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="E25" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -1698,70 +1670,70 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="D28" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="25"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>99</v>
-      </c>
       <c r="D30" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="25"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,154 +1741,154 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="H35" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L35" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="25" t="s">
-        <v>118</v>
-      </c>
       <c r="N35" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>132</v>
-      </c>
       <c r="G36" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J36" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="K36" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K36" s="25" t="s">
-        <v>146</v>
-      </c>
       <c r="L36" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="M36" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M36" s="25" t="s">
-        <v>150</v>
-      </c>
       <c r="N36" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="O36" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="P36" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q36" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="Q36" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>160</v>
-      </c>
       <c r="D37" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="E38" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>166</v>
-      </c>
       <c r="F38" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="I38" s="25" t="s">
-        <v>173</v>
-      </c>
       <c r="J38" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
@@ -1924,377 +1896,351 @@
       <c r="H39" s="27"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="L41" s="25" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="K40" s="27"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="N42" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="O42" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="N41" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="O41" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="P41" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q41" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>145</v>
+      <c r="P42" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>173</v>
+        <v>142</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
       <c r="B44" s="25" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>184</v>
+        <v>172</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
+      <c r="B45" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="M46" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="N46" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="O46" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="25" t="s">
-        <v>142</v>
-      </c>
       <c r="C47" s="25" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="O47" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
       <c r="B48" s="25" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="25" t="s">
+      <c r="D51" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
+      <c r="B54" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="25" t="s">
+      <c r="G54" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="I54" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H53" s="25" t="s">
+      <c r="J54" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="K54" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="L54" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="K53" s="25" t="s">
+      <c r="M54" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="L53" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="N53" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="O53" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="N54" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="B63" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="C63" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C68" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2309,82 +2255,83 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" customWidth="1"/>
-    <col min="21" max="21" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="19.21875" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -2392,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -2404,13 +2351,17 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
       <c r="P2" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="15"/>
@@ -2421,11 +2372,11 @@
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>212</v>
+      <c r="B3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -2433,18 +2384,16 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" t="s">
-        <v>205</v>
+      <c r="B4" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2458,10 +2407,10 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="15"/>
@@ -2473,11 +2422,11 @@
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>212</v>
+      <c r="B5" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2486,8 +2435,18 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
-      <c r="O5" s="8"/>
-      <c r="Q5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="R5" s="19"/>
       <c r="T5" s="26"/>
     </row>
@@ -2495,11 +2454,11 @@
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
+      <c r="B6" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -2524,25 +2483,21 @@
       <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
@@ -2562,10 +2517,10 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>
@@ -2593,43 +2548,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>191</v>
+      <c r="A1" s="28" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
